--- a/biology/Botanique/Giulio_Pontedera/Giulio_Pontedera.xlsx
+++ b/biology/Botanique/Giulio_Pontedera/Giulio_Pontedera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giulio Pontedera (né le 7 mai 1688 à Vicence et mort le 3 septembre 1757 (à 69 ans) à Lonigo) est un botaniste, entomologiste et philologue italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giulio Pontedera naquit à Vicence en 1688. Son oncle, grand amateur de botanique, lui inspira le goût de cette science et lui laissa en mourant un jardin des plantes. Il étudia la médecine et l’anatomie à Padoue sous le célèbre Morgagni et fit en même temps de si grands progrès dans la littérature ancienne, qu’ayant concouru pour les sujets de prix proposés par l’Académie des inscriptions et belles-lettres à Paris, il fut couronné trois fois. Après avoir pris ses degrés de docteur en médecine, il fit des excursions de botanique dans l’Italie cisalpine et rapporta de ses voyages deux cent soixante-douze plantes non encore observées. En 1719 sa réputation était déjà si bien établie, qu’on lui offrit la direction du jardin des plantes et la chaire de botanique à l’université de Padoue et l’on porta successivement son salaire de deux cents à quatorze cents florins. Il est vrai qu’il mettait un grand zèle dans l’enseignement et qu’il enrichissait sans cesse le jardin. Il avait un procédé pour conserver si bien les plantes, qu’il pouvait en hiver même les montrer à ses élèves sous leurs formes et avec leurs couleurs naturelles. Il disséquait très-habilement les tiges, les fleurs et les graines. Cependant, antagoniste du système sexuel de Linné, il s’en tenait aux genres établis par Tournefort. Il cultivait lui-même beaucoup de plantes dans sa terre de Lonigo, où il avait plus de soixante-dix variétés de céréales. Il y mourut le 3 septembre 1757, ne laissant qu’une fille de son mariage avec la fille du marquis Poleni.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les ouvrages qu’il a publiés ont presque tous rapport à la botanique. Ce sont :
 Compendium tabularum botanicarum, in quo plantæ 272 ab eo in Italia nuper detectæ recensentur, Padoue, 1718. Pontedera prend à la tête de cet ouvrage le surnom de Pisan, parce que sa famille était originaire de Pise. L’ouvrage est terminé par une lettre au botaniste anglais Gherard.
